--- a/heat_control/Mesures/In the Legobox/Tableaux de mesures/Valeurs_Tests.xlsx
+++ b/heat_control/Mesures/In the Legobox/Tableaux de mesures/Valeurs_Tests.xlsx
@@ -560,6 +560,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -575,7 +576,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -1205,11 +1205,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="894466080"/>
-        <c:axId val="894467712"/>
+        <c:axId val="1907195120"/>
+        <c:axId val="1907200016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="894466080"/>
+        <c:axId val="1907195120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1251,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="894467712"/>
+        <c:crossAx val="1907200016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1259,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="894467712"/>
+        <c:axId val="1907200016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1310,7 +1310,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="894466080"/>
+        <c:crossAx val="1907195120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2021,11 +2021,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="893972896"/>
-        <c:axId val="893970720"/>
+        <c:axId val="1953209856"/>
+        <c:axId val="1953212032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="893972896"/>
+        <c:axId val="1953209856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2067,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893970720"/>
+        <c:crossAx val="1953212032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2075,7 +2075,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="893970720"/>
+        <c:axId val="1953212032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="40"/>
@@ -2127,7 +2127,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="893972896"/>
+        <c:crossAx val="1953209856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3051,11 +3051,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="698640032"/>
-        <c:axId val="698430880"/>
+        <c:axId val="2130023728"/>
+        <c:axId val="2130009040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="698640032"/>
+        <c:axId val="2130023728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3097,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698430880"/>
+        <c:crossAx val="2130009040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3105,7 +3105,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="698430880"/>
+        <c:axId val="2130009040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3156,7 +3156,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="698640032"/>
+        <c:crossAx val="2130023728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3982,11 +3982,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="965934880"/>
-        <c:axId val="965928352"/>
+        <c:axId val="2130017744"/>
+        <c:axId val="2130016112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="965934880"/>
+        <c:axId val="2130017744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4028,7 +4028,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965928352"/>
+        <c:crossAx val="2130016112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4036,7 +4036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="965928352"/>
+        <c:axId val="2130016112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -4087,7 +4087,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="965934880"/>
+        <c:crossAx val="2130017744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6712,8 +6712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G63" sqref="G63"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6910,7 +6910,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="58"/>
+      <c r="O8" s="53"/>
     </row>
     <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -6938,7 +6938,7 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="58"/>
+      <c r="O9" s="53"/>
     </row>
     <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -6966,7 +6966,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="58"/>
+      <c r="O10" s="53"/>
     </row>
     <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -7128,7 +7128,7 @@
       <c r="F17" s="19">
         <v>43.3</v>
       </c>
-      <c r="G17" s="54" t="s">
+      <c r="G17" s="55" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="8"/>
@@ -7155,7 +7155,7 @@
       <c r="F18" s="21">
         <v>37.9</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="2"/>
@@ -7180,7 +7180,7 @@
       <c r="F19" s="23">
         <v>25</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="2"/>
@@ -7205,7 +7205,7 @@
       <c r="F20" s="19">
         <v>40.6</v>
       </c>
-      <c r="G20" s="54" t="s">
+      <c r="G20" s="55" t="s">
         <v>10</v>
       </c>
       <c r="H20" s="9"/>
@@ -7232,7 +7232,7 @@
       <c r="F21" s="21">
         <v>37.4</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
       <c r="J21" s="2"/>
@@ -7257,7 +7257,7 @@
       <c r="F22" s="23">
         <v>25</v>
       </c>
-      <c r="G22" s="54"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="2"/>
@@ -7282,7 +7282,7 @@
       <c r="F23" s="21">
         <v>44.4</v>
       </c>
-      <c r="G23" s="54" t="s">
+      <c r="G23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="9"/>
@@ -7309,7 +7309,7 @@
       <c r="F24" s="21">
         <v>40.1</v>
       </c>
-      <c r="G24" s="54"/>
+      <c r="G24" s="55"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="2"/>
@@ -7334,7 +7334,7 @@
       <c r="F25" s="21">
         <v>25</v>
       </c>
-      <c r="G25" s="54"/>
+      <c r="G25" s="55"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="2"/>
@@ -7359,7 +7359,7 @@
       <c r="F26" s="28">
         <v>43.3</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="G26" s="56" t="s">
         <v>34</v>
       </c>
       <c r="H26" s="8"/>
@@ -7386,7 +7386,7 @@
       <c r="F27" s="30">
         <v>38.5</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="2"/>
@@ -7411,7 +7411,7 @@
       <c r="F28" s="33">
         <v>24</v>
       </c>
-      <c r="G28" s="55"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="2"/>
@@ -7436,7 +7436,7 @@
       <c r="F29" s="37">
         <v>44.4</v>
       </c>
-      <c r="G29" s="54" t="s">
+      <c r="G29" s="55" t="s">
         <v>35</v>
       </c>
       <c r="H29" s="9"/>
@@ -7463,7 +7463,7 @@
       <c r="F30" s="37">
         <v>37.9</v>
       </c>
-      <c r="G30" s="56"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="2"/>
@@ -7488,7 +7488,7 @@
       <c r="F31" s="33">
         <v>24</v>
       </c>
-      <c r="G31" s="56"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="2"/>
@@ -7513,7 +7513,7 @@
       <c r="F32" s="42">
         <v>46.5</v>
       </c>
-      <c r="G32" s="54" t="s">
+      <c r="G32" s="55" t="s">
         <v>36</v>
       </c>
       <c r="H32" s="9"/>
@@ -7540,7 +7540,7 @@
       <c r="F33" s="45">
         <v>41.2</v>
       </c>
-      <c r="G33" s="57"/>
+      <c r="G33" s="58"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -7565,7 +7565,7 @@
       <c r="F34" s="48">
         <v>26</v>
       </c>
-      <c r="G34" s="57"/>
+      <c r="G34" s="58"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -7617,7 +7617,7 @@
       <c r="F36" s="45">
         <v>43.3</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="54"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -7642,7 +7642,7 @@
       <c r="F37" s="48">
         <v>26</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -7713,12 +7713,6 @@
     <row r="100" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="G11:G13"/>
     <mergeCell ref="G35:G37"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G22"/>
@@ -7726,6 +7720,12 @@
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="G32:G34"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="G11:G13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/heat_control/Mesures/In the Legobox/Tableaux de mesures/Valeurs_Tests.xlsx
+++ b/heat_control/Mesures/In the Legobox/Tableaux de mesures/Valeurs_Tests.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Louis\Documents\PTSI\TIPE\Git\git\git\heat_control\Mesures\In the Legobox\Tableaux de mesures\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Informatique\Git\Git\Projets\Adamant\heat_control\Mesures\In the Legobox\Tableaux de mesures\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>CPU %</t>
   </si>
   <si>
-    <t>RPi1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Disposition : 70 ar out, 120 dev in</t>
-  </si>
-  <si>
-    <t>RPi2</t>
   </si>
   <si>
     <t>Capteur</t>
@@ -57,72 +51,6 @@
     <t>Disposition : 120 des in, 80  av out, 70 ar out</t>
   </si>
   <si>
-    <t>RPi3</t>
-  </si>
-  <si>
-    <t>RPi4</t>
-  </si>
-  <si>
-    <t>RPi5</t>
-  </si>
-  <si>
-    <t>RPi6</t>
-  </si>
-  <si>
-    <t>RPi7</t>
-  </si>
-  <si>
-    <t>RPi8</t>
-  </si>
-  <si>
-    <t>RPi9</t>
-  </si>
-  <si>
-    <t>RPi10</t>
-  </si>
-  <si>
-    <t>RPi11</t>
-  </si>
-  <si>
-    <t>RPi12</t>
-  </si>
-  <si>
-    <t>RPi13</t>
-  </si>
-  <si>
-    <t>RPi14</t>
-  </si>
-  <si>
-    <t>RPi15</t>
-  </si>
-  <si>
-    <t>RPi16</t>
-  </si>
-  <si>
-    <t>RPi17</t>
-  </si>
-  <si>
-    <t>RPi18</t>
-  </si>
-  <si>
-    <t>RPi19</t>
-  </si>
-  <si>
-    <t>RPi20</t>
-  </si>
-  <si>
-    <t>RPi21</t>
-  </si>
-  <si>
-    <t>RPi22</t>
-  </si>
-  <si>
-    <t>RPi23</t>
-  </si>
-  <si>
-    <t>RPi24</t>
-  </si>
-  <si>
     <t>Disposition : 120 av in, 80 ar out, 70 des out</t>
   </si>
   <si>
@@ -134,12 +62,48 @@
   <si>
     <t>Disposition : 80 ar out, 120 av in, des 70 et 70 out</t>
   </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
+  </si>
+  <si>
+    <t>P12</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -560,7 +524,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -576,6 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1"/>
@@ -718,7 +682,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi1</c:v>
+                  <c:v>P1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -820,7 +784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi3</c:v>
+                  <c:v>P2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -922,7 +886,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi5</c:v>
+                  <c:v>P3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1024,7 +988,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi7</c:v>
+                  <c:v>P4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1126,7 +1090,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi9</c:v>
+                  <c:v>P5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1205,11 +1169,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1907195120"/>
-        <c:axId val="1907200016"/>
+        <c:axId val="2143342640"/>
+        <c:axId val="2143343184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1907195120"/>
+        <c:axId val="2143342640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1251,7 +1215,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907200016"/>
+        <c:crossAx val="2143343184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1259,7 +1223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1907200016"/>
+        <c:axId val="2143343184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -1310,7 +1274,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1907195120"/>
+        <c:crossAx val="2143342640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1510,7 +1474,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi2</c:v>
+                  <c:v>P1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1612,7 +1576,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi4</c:v>
+                  <c:v>P2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1714,7 +1678,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi6</c:v>
+                  <c:v>P3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1816,7 +1780,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi8</c:v>
+                  <c:v>P4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1918,7 +1882,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi10</c:v>
+                  <c:v>P5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2021,11 +1985,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="1953209856"/>
-        <c:axId val="1953212032"/>
+        <c:axId val="2143334480"/>
+        <c:axId val="144790096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1953209856"/>
+        <c:axId val="2143334480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2067,7 +2031,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953212032"/>
+        <c:crossAx val="144790096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2075,10 +2039,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1953212032"/>
+        <c:axId val="144790096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="40"/>
+          <c:max val="50"/>
           <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2127,7 +2091,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1953209856"/>
+        <c:crossAx val="2143334480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2333,7 +2297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi11</c:v>
+                  <c:v>P6</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2435,7 +2399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi13</c:v>
+                  <c:v>P7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2537,7 +2501,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi15</c:v>
+                  <c:v>P8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2639,7 +2603,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi17</c:v>
+                  <c:v>P9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2741,7 +2705,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi19</c:v>
+                  <c:v>P10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2843,7 +2807,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi21</c:v>
+                  <c:v>P11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2945,7 +2909,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi23</c:v>
+                  <c:v>P12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3051,11 +3015,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2130023728"/>
-        <c:axId val="2130009040"/>
+        <c:axId val="144782480"/>
+        <c:axId val="144780848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130023728"/>
+        <c:axId val="144782480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3097,7 +3061,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130009040"/>
+        <c:crossAx val="144780848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3105,7 +3069,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130009040"/>
+        <c:axId val="144780848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="25"/>
@@ -3156,7 +3120,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130023728"/>
+        <c:crossAx val="144782480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3369,7 +3333,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi14</c:v>
+                  <c:v>P7</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3471,7 +3435,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi16</c:v>
+                  <c:v>P8</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3573,7 +3537,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi18</c:v>
+                  <c:v>P9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3675,7 +3639,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi20</c:v>
+                  <c:v>P10</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3777,7 +3741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi22</c:v>
+                  <c:v>P11</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3879,7 +3843,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>RPi24</c:v>
+                  <c:v>P12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3982,11 +3946,11 @@
         </c:dLbls>
         <c:gapWidth val="100"/>
         <c:overlap val="-24"/>
-        <c:axId val="2130017744"/>
-        <c:axId val="2130016112"/>
+        <c:axId val="144785744"/>
+        <c:axId val="144779216"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2130017744"/>
+        <c:axId val="144785744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4028,7 +3992,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130016112"/>
+        <c:crossAx val="144779216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4036,9 +4000,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2130016112"/>
+        <c:axId val="144779216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="50"/>
           <c:min val="25"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4087,7 +4052,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130017744"/>
+        <c:crossAx val="144785744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6417,13 +6382,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
+      <xdr:colOff>276224</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
+      <xdr:colOff>809624</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
@@ -6712,11 +6677,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G10"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
@@ -6724,7 +6689,7 @@
     <col min="8" max="15" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6746,9 +6711,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10">
         <v>27.2</v>
@@ -6766,13 +6731,13 @@
         <v>41.2</v>
       </c>
       <c r="G2" s="52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="19.899999999999999" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B3" s="14">
         <v>26.1</v>
@@ -6792,9 +6757,9 @@
       <c r="G3" s="52"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A4" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="16">
         <v>24</v>
@@ -6814,9 +6779,9 @@
       <c r="G4" s="52"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" s="10">
         <v>30.44</v>
@@ -6834,13 +6799,13 @@
         <v>44.4</v>
       </c>
       <c r="G5" s="52" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="19.899999999999999" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="14">
         <v>26.6</v>
@@ -6860,9 +6825,9 @@
       <c r="G6" s="52"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A7" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="16">
         <v>24</v>
@@ -6882,9 +6847,9 @@
       <c r="G7" s="52"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B8" s="10">
         <v>30.4</v>
@@ -6902,7 +6867,7 @@
         <v>46</v>
       </c>
       <c r="G8" s="52" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="7"/>
@@ -6910,11 +6875,11 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
-      <c r="O8" s="53"/>
+      <c r="O8" s="58"/>
     </row>
-    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="19.899999999999999" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="14">
         <v>28.8</v>
@@ -6938,11 +6903,11 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="7"/>
-      <c r="O9" s="53"/>
+      <c r="O9" s="58"/>
     </row>
-    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B10" s="16">
         <v>23</v>
@@ -6966,11 +6931,11 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="53"/>
+      <c r="O10" s="58"/>
     </row>
-    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="10">
         <v>28.8</v>
@@ -6988,10 +6953,10 @@
         <v>44.4</v>
       </c>
       <c r="G11" s="52" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="19.899999999999999" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -7012,9 +6977,9 @@
       </c>
       <c r="G12" s="52"/>
     </row>
-    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13" s="16">
         <v>23</v>
@@ -7033,7 +6998,7 @@
       </c>
       <c r="G13" s="52"/>
     </row>
-    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -7053,16 +7018,16 @@
         <v>41.2</v>
       </c>
       <c r="G14" s="52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="19.899999999999999" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="14">
         <v>26.1</v>
@@ -7084,9 +7049,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16" s="16">
         <v>24</v>
@@ -7109,9 +7074,9 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="18">
         <v>29.3</v>
@@ -7128,17 +7093,17 @@
       <c r="F17" s="19">
         <v>43.3</v>
       </c>
-      <c r="G17" s="55" t="s">
-        <v>9</v>
+      <c r="G17" s="54" t="s">
+        <v>7</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="9"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B18" s="20">
         <v>27.2</v>
@@ -7155,15 +7120,15 @@
       <c r="F18" s="21">
         <v>37.9</v>
       </c>
-      <c r="G18" s="55"/>
+      <c r="G18" s="54"/>
       <c r="H18" s="8"/>
       <c r="I18" s="9"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B19" s="22">
         <v>25</v>
@@ -7180,15 +7145,15 @@
       <c r="F19" s="23">
         <v>25</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="54"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B20" s="18">
         <v>27.7</v>
@@ -7205,17 +7170,17 @@
       <c r="F20" s="19">
         <v>40.6</v>
       </c>
-      <c r="G20" s="55" t="s">
-        <v>10</v>
+      <c r="G20" s="54" t="s">
+        <v>8</v>
       </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B21" s="20">
         <v>27.2</v>
@@ -7232,15 +7197,15 @@
       <c r="F21" s="21">
         <v>37.4</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="8"/>
       <c r="I21" s="9"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B22" s="22">
         <v>25</v>
@@ -7257,15 +7222,15 @@
       <c r="F22" s="23">
         <v>25</v>
       </c>
-      <c r="G22" s="55"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" s="20">
         <v>29.3</v>
@@ -7282,17 +7247,17 @@
       <c r="F23" s="21">
         <v>44.4</v>
       </c>
-      <c r="G23" s="55" t="s">
-        <v>11</v>
+      <c r="G23" s="54" t="s">
+        <v>9</v>
       </c>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B24" s="20">
         <v>27.7</v>
@@ -7309,15 +7274,15 @@
       <c r="F24" s="21">
         <v>40.1</v>
       </c>
-      <c r="G24" s="55"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="9"/>
       <c r="I24" s="9"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B25" s="24">
         <v>25</v>
@@ -7334,15 +7299,15 @@
       <c r="F25" s="21">
         <v>25</v>
       </c>
-      <c r="G25" s="55"/>
+      <c r="G25" s="54"/>
       <c r="H25" s="8"/>
       <c r="I25" s="9"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B26" s="26">
         <v>28.8</v>
@@ -7359,17 +7324,17 @@
       <c r="F26" s="28">
         <v>43.3</v>
       </c>
-      <c r="G26" s="56" t="s">
-        <v>34</v>
+      <c r="G26" s="55" t="s">
+        <v>10</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="9"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B27" s="29">
         <v>27.2</v>
@@ -7386,15 +7351,15 @@
       <c r="F27" s="30">
         <v>38.5</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="8"/>
       <c r="I27" s="9"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
-    <row r="28" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B28" s="31">
         <v>24</v>
@@ -7411,15 +7376,15 @@
       <c r="F28" s="33">
         <v>24</v>
       </c>
-      <c r="G28" s="56"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
-    <row r="29" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B29" s="34">
         <v>29.3</v>
@@ -7436,17 +7401,17 @@
       <c r="F29" s="37">
         <v>44.4</v>
       </c>
-      <c r="G29" s="55" t="s">
-        <v>35</v>
+      <c r="G29" s="54" t="s">
+        <v>11</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
-    <row r="30" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B30" s="34">
         <v>26.1</v>
@@ -7463,15 +7428,15 @@
       <c r="F30" s="37">
         <v>37.9</v>
       </c>
-      <c r="G30" s="57"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
     </row>
-    <row r="31" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="31">
         <v>24</v>
@@ -7488,15 +7453,15 @@
       <c r="F31" s="33">
         <v>24</v>
       </c>
-      <c r="G31" s="57"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
-    <row r="32" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A32" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B32" s="39">
         <v>30.9</v>
@@ -7513,17 +7478,17 @@
       <c r="F32" s="42">
         <v>46.5</v>
       </c>
-      <c r="G32" s="55" t="s">
-        <v>36</v>
+      <c r="G32" s="54" t="s">
+        <v>12</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B33" s="43">
         <v>29.3</v>
@@ -7540,15 +7505,15 @@
       <c r="F33" s="45">
         <v>41.2</v>
       </c>
-      <c r="G33" s="58"/>
+      <c r="G33" s="57"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A34" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B34" s="46">
         <v>26</v>
@@ -7565,15 +7530,15 @@
       <c r="F34" s="48">
         <v>26</v>
       </c>
-      <c r="G34" s="58"/>
+      <c r="G34" s="57"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1">
       <c r="A35" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B35" s="49">
         <v>31.6</v>
@@ -7591,16 +7556,16 @@
         <v>47.6</v>
       </c>
       <c r="G35" s="52" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
-    <row r="36" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="19.899999999999999" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B36" s="43">
         <v>29.9</v>
@@ -7617,15 +7582,15 @@
       <c r="F36" s="45">
         <v>43.3</v>
       </c>
-      <c r="G36" s="54"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
-    <row r="37" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="19.899999999999999" customHeight="1" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B37" s="46">
         <v>26</v>
@@ -7642,77 +7607,83 @@
       <c r="F37" s="48">
         <v>26</v>
       </c>
-      <c r="G37" s="54"/>
+      <c r="G37" s="53"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
     </row>
-    <row r="38" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="1:11" ht="19.899999999999999" customHeight="1" thickTop="1"/>
+    <row r="39" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="40" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="41" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="42" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="43" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="44" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="45" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="46" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="47" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="48" spans="1:11" ht="19.899999999999999" customHeight="1"/>
+    <row r="49" ht="19.899999999999999" customHeight="1"/>
+    <row r="50" ht="19.899999999999999" customHeight="1"/>
+    <row r="51" ht="19.899999999999999" customHeight="1"/>
+    <row r="52" ht="19.899999999999999" customHeight="1"/>
+    <row r="53" ht="19.899999999999999" customHeight="1"/>
+    <row r="54" ht="19.899999999999999" customHeight="1"/>
+    <row r="55" ht="19.899999999999999" customHeight="1"/>
+    <row r="56" ht="19.899999999999999" customHeight="1"/>
+    <row r="57" ht="19.899999999999999" customHeight="1"/>
+    <row r="58" ht="19.899999999999999" customHeight="1"/>
+    <row r="59" ht="19.899999999999999" customHeight="1"/>
+    <row r="60" ht="19.899999999999999" customHeight="1"/>
+    <row r="61" ht="19.899999999999999" customHeight="1"/>
+    <row r="62" ht="19.899999999999999" customHeight="1"/>
+    <row r="63" ht="19.899999999999999" customHeight="1"/>
+    <row r="64" ht="19.899999999999999" customHeight="1"/>
+    <row r="65" ht="19.899999999999999" customHeight="1"/>
+    <row r="66" ht="19.899999999999999" customHeight="1"/>
+    <row r="67" ht="19.899999999999999" customHeight="1"/>
+    <row r="68" ht="19.899999999999999" customHeight="1"/>
+    <row r="69" ht="19.899999999999999" customHeight="1"/>
+    <row r="70" ht="19.899999999999999" customHeight="1"/>
+    <row r="71" ht="19.899999999999999" customHeight="1"/>
+    <row r="72" ht="19.899999999999999" customHeight="1"/>
+    <row r="73" ht="19.899999999999999" customHeight="1"/>
+    <row r="74" ht="19.899999999999999" customHeight="1"/>
+    <row r="75" ht="19.899999999999999" customHeight="1"/>
+    <row r="76" ht="19.899999999999999" customHeight="1"/>
+    <row r="77" ht="19.899999999999999" customHeight="1"/>
+    <row r="78" ht="19.899999999999999" customHeight="1"/>
+    <row r="79" ht="19.899999999999999" customHeight="1"/>
+    <row r="80" ht="19.899999999999999" customHeight="1"/>
+    <row r="81" ht="19.899999999999999" customHeight="1"/>
+    <row r="82" ht="19.899999999999999" customHeight="1"/>
+    <row r="83" ht="19.899999999999999" customHeight="1"/>
+    <row r="84" ht="19.899999999999999" customHeight="1"/>
+    <row r="85" ht="19.899999999999999" customHeight="1"/>
+    <row r="86" ht="19.899999999999999" customHeight="1"/>
+    <row r="87" ht="19.899999999999999" customHeight="1"/>
+    <row r="88" ht="19.899999999999999" customHeight="1"/>
+    <row r="89" ht="19.899999999999999" customHeight="1"/>
+    <row r="90" ht="19.899999999999999" customHeight="1"/>
+    <row r="91" ht="19.899999999999999" customHeight="1"/>
+    <row r="92" ht="19.899999999999999" customHeight="1"/>
+    <row r="93" ht="19.899999999999999" customHeight="1"/>
+    <row r="94" ht="19.899999999999999" customHeight="1"/>
+    <row r="95" ht="19.899999999999999" customHeight="1"/>
+    <row r="96" ht="19.899999999999999" customHeight="1"/>
+    <row r="97" ht="19.899999999999999" customHeight="1"/>
+    <row r="98" ht="19.899999999999999" customHeight="1"/>
+    <row r="99" ht="19.899999999999999" customHeight="1"/>
+    <row r="100" ht="19.899999999999999" customHeight="1"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="G11:G13"/>
     <mergeCell ref="G35:G37"/>
     <mergeCell ref="G17:G19"/>
     <mergeCell ref="G20:G22"/>
@@ -7720,12 +7691,6 @@
     <mergeCell ref="G26:G28"/>
     <mergeCell ref="G29:G31"/>
     <mergeCell ref="G32:G34"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="G11:G13"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
